--- a/Caption.xlsx
+++ b/Caption.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UiPath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uipath\vk post\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16824" windowHeight="6312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Caption</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Hi ye</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>fdsf</t>
   </si>
 </sst>
 </file>
@@ -354,18 +360,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,12 +379,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Caption.xlsx
+++ b/Caption.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,20 +35,46 @@
     <t>1.jpg</t>
   </si>
   <si>
-    <t>Hi ye</t>
-  </si>
-  <si>
     <t>2.jpg</t>
   </si>
   <si>
     <t>fdsf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🔝Компания ЗАО "Серволюкс Агро"🔝
+Приглашает на работу 👫: 
+🔹️обработчиков птицы
+🔹️изготовителей полуфабрикатов из мяса птицы
+🔹️расфасовщиков 
+🌏 мы находимся: пригород г.Могилева, аг.Межисетки, 12 км. трассы р-93 «Могилев-Бобруйск»
+✅ прямой работодатель
+✅ официальное трудоустройство 
+✔Мы предоставляем: 
+🏘 койко-место в базах отдыха(для семейных комнаты)
+🍴бесплатные полноценные обеды
+🚌 доставка транспортом компании с места проживания на вахте
+🥼 спецодежду 
+✔Условия
+🔹️ вахта 21/7( min) с ввходными днями
+🔹️дневные смены =&gt;12 часов
+🔹️график работы ( 3/1, 4/2, 6/1) 
+💰 Сдельно-премиальная оплата труда:
+🔹️
+🔹️
+🔹️
+❗Опыт работы не требуется❗
+Всему обучим на производстве.
+📲 За более подробной информацией звоните/пишите
++37529 747 3532 А1/ Viber
+💥 условия проживания на вахте и производственный процесс 🔁 https://vk.com/club207348733
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +82,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Eras Medium ITC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,11 +399,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="80.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -379,23 +416,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>